--- a/public/assets/education.xlsx
+++ b/public/assets/education.xlsx
@@ -28,10 +28,10 @@
     <t>Image</t>
   </si>
   <si>
-    <t xml:space="preserve">Technician in Systems Development Integrated with High School  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IFRS (Federal Institute of Education, Science and Technology) – Canoas Campus  </t>
+    <t>Technician in Systems Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFRS (Federal Institute of Education, Science and Technology)  </t>
   </si>
   <si>
     <t>2019 - 2022</t>
@@ -43,7 +43,7 @@
     <t>ifrs.jpeg</t>
   </si>
   <si>
-    <t xml:space="preserve">Associate’s Degree in Software Analysis and Development  </t>
+    <t>Associate’s Degree in Software Analysis and Development</t>
   </si>
   <si>
     <t>LaSalle University</t>

--- a/public/assets/education.xlsx
+++ b/public/assets/education.xlsx
@@ -55,7 +55,7 @@
     <t>unilasalle.jpg</t>
   </si>
   <si>
-    <t>Bachelor's Degree in Social Sciences</t>
+    <t>Bachelor's Degree in Social Service</t>
   </si>
   <si>
     <t>UFRGS (Rio Grande do Sul's Federal University)</t>
